--- a/Expenses_2018.xlsx
+++ b/Expenses_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>Desc</t>
   </si>
@@ -1070,11 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1133,7 +1132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1274,10 +1273,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>79850</v>
+        <v>84850</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,13 +1317,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E13">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="unpaid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21838,10 +21831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21923,7 +21916,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="1">
-        <v>15000</v>
+        <v>18225.55</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -22046,7 +22039,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>100368.82</v>
+        <v>103594.37000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -22059,7 +22052,7 @@
         <v>55</v>
       </c>
       <c r="B20">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -22075,15 +22068,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>100000</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/Expenses_2018.xlsx
+++ b/Expenses_2018.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
     <sheet name="HDFC Home Loan schedule" sheetId="2" r:id="rId2"/>
     <sheet name="FEB" sheetId="3" r:id="rId3"/>
+    <sheet name="MAR" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jan!$A$1:$E$13</definedName>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="56">
   <si>
     <t>Desc</t>
   </si>
@@ -21833,8 +21834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22074,4 +22075,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>30000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>15250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11650</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11477</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>611</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f>SUM(B2:B12)</f>
+        <v>70788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>40000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expenses_2018.xlsx
+++ b/Expenses_2018.xlsx
@@ -22082,7 +22082,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22314,7 +22314,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>40000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
